--- a/medicine/Pharmacie/Georg_Wilhelm_Franz_Wenderoth/Georg_Wilhelm_Franz_Wenderoth.xlsx
+++ b/medicine/Pharmacie/Georg_Wilhelm_Franz_Wenderoth/Georg_Wilhelm_Franz_Wenderoth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Wilhelm Franz Wenderoth, né le 17 janvier 1774 à Marbourg et mort le 5 juin 1861, est un pharmacien et botaniste allemand. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord pharmacien de formation, il travaille pendant quelques années à la Rathsapotheke de Schweinfurt, où il passe son temps libre à faire des excursions botaniques dans les environs de la ville. À partir de 1796, il étudie la médecine et les sciences naturelles à l'Université de Marburg, obtenant son habilitation en pharmacologie et botanique en 1806. Par la suite, il enseigne la physique, la chimie et la botanique à Rinteln. En 1810, il retourne à Marburg comme professeur de botanique, se distinguant par son travail effectué à l'Alter Botanischer Garten Marburg[1].
-Le genre botanique Wenderothia est nommée en son honneur par Diederich Franz Leonhard von Schlechtendal (1794-1866)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord pharmacien de formation, il travaille pendant quelques années à la Rathsapotheke de Schweinfurt, où il passe son temps libre à faire des excursions botaniques dans les environs de la ville. À partir de 1796, il étudie la médecine et les sciences naturelles à l'Université de Marburg, obtenant son habilitation en pharmacologie et botanique en 1806. Par la suite, il enseigne la physique, la chimie et la botanique à Rinteln. En 1810, il retourne à Marburg comme professeur de botanique, se distinguant par son travail effectué à l'Alter Botanischer Garten Marburg.
+Le genre botanique Wenderothia est nommée en son honneur par Diederich Franz Leonhard von Schlechtendal (1794-1866).
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lehrbuch der Botanik zu Vorlesungen un zum Selbststudium, 1821.
 Flora Hassiaca : oder systematische Verzeichniss aller bis jetzt in Kurhessen ... beobachteten Pflanzen, enthaltend die offen blühenden Gewächse, 1846.
-Die pflanzen botanischer gärten, zunächst die des pflanzengartens der Universität Marburg, unter ihren catalognummern systematisch aufgefürt und synoptisch beschrieben, 1851[3],[4].</t>
+Die pflanzen botanischer gärten, zunächst die des pflanzengartens der Universität Marburg, unter ihren catalognummern systematisch aufgefürt und synoptisch beschrieben, 1851,.</t>
         </is>
       </c>
     </row>
